--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -1390,73 +1390,73 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="19" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="20" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="21" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="22" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="23" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2671,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -2838,9 +2838,9 @@
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="23" t="e">
-        <f>B13+(1/24)</f>
-        <v>#VALUE!</v>
+      <c r="C13" s="23" t="str">
+        <f>IF(B13&lt;&gt;"",B13+(1/24),"")</f>
+        <v/>
       </c>
       <c r="D13" s="24">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
@@ -2864,13 +2864,13 @@
         <f>A13</f>
         <v/>
       </c>
-      <c r="B14" s="26" t="e">
+      <c r="B14" s="26" t="str">
         <f>C13</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C14" s="26" t="e">
-        <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
-        <v>#VALUE!</v>
+      <c r="C14" s="23" t="str">
+        <f t="shared" ref="C14:C25" si="0">IF(B14&lt;&gt;"",B14+(1/24),"")</f>
+        <v/>
       </c>
       <c r="D14" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
@@ -2891,13 +2891,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="26" t="e">
+      <c r="B15" s="26" t="str">
         <f t="shared" ref="B15:B24" si="3">C14</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C15" s="26" t="e">
+      <c r="C15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D15" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
@@ -2918,13 +2918,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
-      <c r="B16" s="26" t="e">
+      <c r="B16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C16" s="26" t="e">
+      <c r="C16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D16" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
-      <c r="B17" s="26" t="e">
+      <c r="B17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C17" s="26" t="e">
+      <c r="C17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D17" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
-      <c r="B18" s="26" t="e">
+      <c r="B18" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C18" s="26" t="e">
+      <c r="C18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D18" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="26" t="e">
+      <c r="B19" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C19" s="26" t="e">
+      <c r="C19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D19" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="26" t="e">
+      <c r="B20" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C20" s="26" t="e">
+      <c r="C20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D20" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
-      <c r="B21" s="26" t="e">
+      <c r="B21" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C21" s="26" t="e">
+      <c r="C21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D21" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
-      <c r="B22" s="26" t="e">
+      <c r="B22" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C22" s="26" t="e">
+      <c r="C22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D22" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
-      <c r="B23" s="26" t="e">
+      <c r="B23" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C23" s="26" t="e">
+      <c r="C23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D23" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="26" t="e">
+      <c r="B24" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C24" s="26" t="e">
+      <c r="C24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D24" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
-      <c r="B25" s="26" t="e">
+      <c r="B25" s="26" t="str">
         <f t="shared" ref="B25:B30" si="4">C24</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C25" s="26" t="e">
-        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
-        <v>#VALUE!</v>
+      <c r="C25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="D25" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
@@ -3188,13 +3188,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="26" t="e">
+      <c r="B26" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C26" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="C26" s="23" t="str">
+        <f t="shared" ref="C26:C36" si="5">IF(B26&lt;&gt;"",B26+(1/24),"")</f>
+        <v/>
       </c>
       <c r="D26" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="26" t="e">
+      <c r="B27" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C27" s="26" t="e">
+      <c r="C27" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D27" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="26" t="e">
+      <c r="B28" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C28" s="26" t="e">
+      <c r="C28" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D28" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="26" t="e">
+      <c r="B29" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C29" s="26" t="e">
+      <c r="C29" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D29" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
@@ -3296,13 +3296,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
-      <c r="B30" s="26" t="e">
+      <c r="B30" s="26" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C30" s="26" t="e">
+      <c r="C30" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="D30" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
-      <c r="B31" s="26" t="e">
+      <c r="B31" s="26" t="str">
         <f t="shared" ref="B31:B37" si="6">C30</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C31" s="26" t="e">
-        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
-        <v>#VALUE!</v>
+      <c r="C31" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D31" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="26" t="e">
+      <c r="B32" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C32" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="C32" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D32" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
-      <c r="B33" s="26" t="e">
+      <c r="B33" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C33" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="C33" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D33" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
@@ -3404,13 +3404,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
-      <c r="B34" s="26" t="e">
+      <c r="B34" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C34" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="C34" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D34" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
@@ -3431,13 +3431,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
-      <c r="B35" s="26" t="e">
+      <c r="B35" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C35" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="C35" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D35" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2"/>
-      <c r="B36" s="26" t="e">
+      <c r="B36" s="26" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
-      <c r="C36" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="C36" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="D36" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -63,16 +63,16 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>( Liter/min )</t>
+    <t>( m3/h )</t>
   </si>
   <si>
-    <t>( M3/min )</t>
+    <t>( L/min )</t>
   </si>
   <si>
-    <t>( Liter )</t>
+    <t>( m3 )</t>
   </si>
   <si>
-    <t>( M3 )</t>
+    <t>( L )</t>
   </si>
   <si>
     <t>Avarage / Total</t>
@@ -2671,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -1289,1055 +1289,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Flow Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.445941610522939"/>
-          <c:y val="0.0350262697022767"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$B$13:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$13:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="976450309"/>
-        <c:axId val="542807230"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="976450309"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>Waktu</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.479392578333868"/>
-              <c:y val="0.867900925694271"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="542807230"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="542807230"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>(L/min)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="976450309"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2361,7 +1312,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2376,36 +1327,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="38100" y="7089775"/>
-        <a:ext cx="5937885" cy="2538095"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2671,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3536,7 +2457,7 @@
   <dimension ref="B2:F6047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RawData" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -26,13 +29,13 @@
     <t>LAPORAN PENGGUNAAN AIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Alat Ukur      : </t>
+    <t>Alat Ukur      :</t>
   </si>
   <si>
     <t>Flowmeter Electromagnetic</t>
   </si>
   <si>
-    <t xml:space="preserve">Sumber Air   : </t>
+    <t>Sumber Air   :</t>
   </si>
   <si>
     <t>Sumur Tanah 02</t>
@@ -63,16 +66,16 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>( m3/h )</t>
+    <t>( Liter/min )</t>
   </si>
   <si>
-    <t>( L/min )</t>
+    <t>( M3/min )</t>
   </si>
   <si>
-    <t>( m3 )</t>
+    <t>( Liter )</t>
   </si>
   <si>
-    <t>( L )</t>
+    <t>( M3 )</t>
   </si>
   <si>
     <t>Avarage / Total</t>
@@ -1289,6 +1292,1053 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Flow Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.445941610522939"/>
+          <c:y val="0.0350262697022767"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Report!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Report!$B$13:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="hh:mm;@">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Report!$D$13:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="976450309"/>
+        <c:axId val="542807230"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="976450309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Waktu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.479392578333868"/>
+              <c:y val="0.867900925694271"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542807230"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542807230"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>(L/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976450309"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1312,7 +2362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1329,7 +2379,340 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="222250"/>
+          <a:ext cx="1102360" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38100" y="7089775"/>
+        <a:ext cx="5937885" cy="2538095"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Report"/>
+      <sheetName val="RawData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="13">
+          <cell r="A13" t="str">
+            <v/>
+          </cell>
+          <cell r="B13" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="e">
+            <v>#VALUE!</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,8 +2975,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1752,31 +3135,31 @@
     </row>
     <row r="13" ht="15.25" spans="1:7">
       <c r="A13" s="22" t="str">
-        <f>RawData!F3</f>
+        <f>[1]RawData!F3</f>
         <v/>
       </c>
       <c r="B13" s="23" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="23" t="str">
-        <f>IF(B13&lt;&gt;"",B13+(1/24),"")</f>
-        <v/>
+      <c r="C13" s="23" t="e">
+        <f t="shared" ref="C13:C36" si="0">B13+(1/24)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D13" s="24">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="24">
-        <f>D13/1000</f>
+        <f t="shared" ref="E13:E36" si="1">D13/1000</f>
         <v>0</v>
       </c>
       <c r="F13" s="24">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="24">
-        <f>F13/1000</f>
+        <f t="shared" ref="G13:G36" si="2">F13/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -1785,43 +3168,43 @@
         <f>A13</f>
         <v/>
       </c>
-      <c r="B14" s="26" t="str">
-        <f>C13</f>
-        <v/>
+      <c r="B14" s="26" t="e">
+        <f t="shared" ref="B14:B36" si="3">C13</f>
+        <v>#VALUE!</v>
       </c>
-      <c r="C14" s="23" t="str">
-        <f t="shared" ref="C14:C25" si="0">IF(B14&lt;&gt;"",B14+(1/24),"")</f>
-        <v/>
+      <c r="C14" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D14" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" ref="E14:E36" si="1">D14/1000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" ref="G14:G36" si="2">F14/1000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="26" t="str">
-        <f t="shared" ref="B15:B24" si="3">C14</f>
-        <v/>
+      <c r="B15" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D15" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="27">
@@ -1829,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="27">
@@ -1839,16 +3222,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D16" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="27">
@@ -1856,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="27">
@@ -1866,16 +3249,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D17" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="27">
@@ -1883,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="27">
@@ -1893,16 +3276,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D18" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="27">
@@ -1910,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="27">
@@ -1920,16 +3303,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="26" t="str">
+      <c r="B19" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D19" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="27">
@@ -1937,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="27">
@@ -1947,16 +3330,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D20" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="27">
@@ -1964,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="27">
@@ -1974,16 +3357,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D21" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="27">
@@ -1991,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
       <c r="G21" s="27">
@@ -2001,16 +3384,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
-      <c r="B22" s="26" t="str">
+      <c r="B22" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D22" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="27">
@@ -2018,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="27">
@@ -2028,16 +3411,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
-      <c r="B23" s="26" t="str">
+      <c r="B23" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D23" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="27">
@@ -2045,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="27">
@@ -2055,16 +3438,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="26" t="str">
+      <c r="B24" s="26" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D24" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="27">
@@ -2072,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="27">
@@ -2082,16 +3465,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
-      <c r="B25" s="26" t="str">
-        <f t="shared" ref="B25:B30" si="4">C24</f>
-        <v/>
+      <c r="B25" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="26" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="D25" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
       <c r="E25" s="27">
@@ -2099,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="27">
@@ -2109,16 +3492,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B26" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C26" s="23" t="str">
-        <f t="shared" ref="C26:C36" si="5">IF(B26&lt;&gt;"",B26+(1/24),"")</f>
-        <v/>
+      <c r="C26" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D26" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="27">
@@ -2126,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="27">
@@ -2136,16 +3519,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B27" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C27" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C27" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D27" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="27">
@@ -2153,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="27">
@@ -2163,16 +3546,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B28" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C28" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C28" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D28" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="27">
@@ -2180,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="27">
@@ -2190,16 +3573,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B29" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C29" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C29" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D29" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
       <c r="E29" s="27">
@@ -2207,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="27">
@@ -2217,16 +3600,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
-      <c r="B30" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="B30" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C30" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C30" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D30" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="27">
@@ -2234,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="27">
@@ -2244,16 +3627,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
-      <c r="B31" s="26" t="str">
-        <f t="shared" ref="B31:B37" si="6">C30</f>
-        <v/>
+      <c r="B31" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C31" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C31" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D31" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="27">
@@ -2261,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="27">
@@ -2271,16 +3654,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B32" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C32" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D32" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
       <c r="E32" s="27">
@@ -2288,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="27">
@@ -2298,16 +3681,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
-      <c r="B33" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B33" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C33" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C33" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D33" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
       <c r="E33" s="27">
@@ -2315,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="27">
@@ -2325,16 +3708,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
-      <c r="B34" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B34" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C34" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C34" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D34" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="27">
@@ -2342,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="27">
@@ -2352,16 +3735,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
-      <c r="B35" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B35" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C35" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C35" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D35" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="27">
@@ -2369,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="27">
@@ -2379,16 +3762,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2"/>
-      <c r="B36" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B36" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
-      <c r="C36" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="C36" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D36" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
+        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
       <c r="E36" s="27">
@@ -2396,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
+        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="27">
@@ -2439,14 +3822,11 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>RawData!$F$3:$F$60</formula1>
+      <formula1>[1]RawData!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="F13" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RawData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -29,13 +26,13 @@
     <t>LAPORAN PENGGUNAAN AIR</t>
   </si>
   <si>
-    <t>Alat Ukur      :</t>
+    <t xml:space="preserve">Alat Ukur      : </t>
   </si>
   <si>
     <t>Flowmeter Electromagnetic</t>
   </si>
   <si>
-    <t>Sumber Air   :</t>
+    <t xml:space="preserve">Sumber Air   : </t>
   </si>
   <si>
     <t>Sumur Tanah 02</t>
@@ -1360,7 +1357,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Report!$A$13</c:f>
+              <c:f>Report!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1386,7 +1383,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Report!$B$13:$B$36</c:f>
+              <c:f>Report!$B$13:$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0" c:formatCode="hh:mm;@">
@@ -1466,7 +1463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Report!$D$13:$D$36</c:f>
+              <c:f>Report!$D$13:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1777,9 +1774,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2379,44 +2378,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="222250"/>
-          <a:ext cx="1102360" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2432,7 +2393,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2448,271 +2409,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Report"/>
-      <sheetName val="RawData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="13">
-          <cell r="A13" t="str">
-            <v/>
-          </cell>
-          <cell r="B13" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="F3" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2975,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3135,7 +2831,7 @@
     </row>
     <row r="13" ht="15.25" spans="1:7">
       <c r="A13" s="22" t="str">
-        <f>[1]RawData!F3</f>
+        <f>RawData!F3</f>
         <v/>
       </c>
       <c r="B13" s="23" t="str">
@@ -3143,23 +2839,23 @@
         <v/>
       </c>
       <c r="C13" s="23" t="e">
-        <f t="shared" ref="C13:C36" si="0">B13+(1/24)</f>
+        <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="24">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="24">
-        <f t="shared" ref="E13:E36" si="1">D13/1000</f>
+        <f>D13/1000</f>
         <v>0</v>
       </c>
       <c r="F13" s="24">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B13,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="24">
-        <f t="shared" ref="G13:G36" si="2">F13/1000</f>
+        <f>F13/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -3169,34 +2865,34 @@
         <v/>
       </c>
       <c r="B14" s="26" t="e">
-        <f t="shared" ref="B14:B36" si="3">C13</f>
+        <f>C13</f>
         <v>#VALUE!</v>
       </c>
       <c r="C14" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D14" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E14:E36" si="1">D14/1000</f>
         <v>0</v>
       </c>
       <c r="F14" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B14,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G14:G36" si="2">F14/1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B15:B24" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="26" t="e">
@@ -3204,7 +2900,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D15" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="27">
@@ -3212,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B15,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="27">
@@ -3231,7 +2927,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D16" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="27">
@@ -3239,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B16,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="27">
@@ -3258,7 +2954,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D17" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="27">
@@ -3266,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B17,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="27">
@@ -3285,7 +2981,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D18" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="27">
@@ -3293,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B18,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="27">
@@ -3312,7 +3008,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D19" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="27">
@@ -3320,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B19,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="27">
@@ -3339,7 +3035,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D20" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="27">
@@ -3347,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B20,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="27">
@@ -3366,7 +3062,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D21" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="27">
@@ -3374,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B21,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
       <c r="G21" s="27">
@@ -3393,7 +3089,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D22" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="27">
@@ -3401,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B22,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="27">
@@ -3420,7 +3116,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D23" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="27">
@@ -3428,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B23,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="27">
@@ -3447,7 +3143,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D24" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="27">
@@ -3455,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B24,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="27">
@@ -3466,15 +3162,15 @@
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B25:B30" si="4">C24</f>
         <v>#VALUE!</v>
       </c>
       <c r="C25" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D25" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
       <c r="E25" s="27">
@@ -3482,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B25,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="27">
@@ -3493,15 +3189,15 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C26" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D26" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="27">
@@ -3509,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B26,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="27">
@@ -3520,15 +3216,15 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C27" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="27">
@@ -3536,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B27,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="27">
@@ -3547,15 +3243,15 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C28" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D28" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="27">
@@ -3563,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B28,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="27">
@@ -3574,15 +3270,15 @@
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C29" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
       <c r="E29" s="27">
@@ -3590,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B29,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="27">
@@ -3601,15 +3297,15 @@
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C30" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="27">
@@ -3617,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B30,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="27">
@@ -3628,15 +3324,15 @@
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B31:B37" si="6">C30</f>
         <v>#VALUE!</v>
       </c>
       <c r="C31" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="27">
@@ -3644,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B31,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="27">
@@ -3655,15 +3351,15 @@
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
       <c r="E32" s="27">
@@ -3671,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B32,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="27">
@@ -3682,15 +3378,15 @@
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
       <c r="E33" s="27">
@@ -3698,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B33,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="27">
@@ -3709,15 +3405,15 @@
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C34" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D34" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="27">
@@ -3725,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B34,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="27">
@@ -3736,15 +3432,15 @@
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C35" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="27">
@@ -3752,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B35,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="27">
@@ -3763,15 +3459,15 @@
     <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C36" s="26" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D36" s="27">
-        <f>IF(COUNTIFS([1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS([1]RawData!$C$3:$C$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
       <c r="E36" s="27">
@@ -3779,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="27">
-        <f>_xlfn.MAXIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS([1]RawData!$D$3:$D$6000,[1]RawData!$B$3:$B$6000,"&gt;="&amp;B36,[1]RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="27">
@@ -3822,11 +3518,14 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
-      <formula1>[1]RawData!#REF!</formula1>
+      <formula1>RawData!$F$3:$F$60</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="F13" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3837,7 +3536,7 @@
   <dimension ref="B2:F6047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView windowWidth="24750" windowHeight="10430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -2671,7 +2671,7 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3535,8 +3535,8 @@
   <sheetPr/>
   <dimension ref="B2:F6047"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -3573,7 +3573,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="4" t="str">
-        <f>IF(ISNUMBER(F3),IF((F3-1)&gt;MROUND(SMALL($B$3:$B$6000,1),2),(F3-1),""),"")</f>
+        <f>IF(ISNUMBER(F3),IF((F3)&gt;SMALL($B$3:$B$6000,1),(F3-1),""),"")</f>
         <v/>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="4" t="str">
-        <f t="shared" ref="F5:F36" si="0">IF(ISNUMBER(F4),IF((F4-1)&gt;MROUND(SMALL($B$3:$B$6000,1),2),(F4-1),""),"")</f>
+        <f t="shared" ref="F5:F36" si="0">IF(ISNUMBER(F4),IF((F4)&gt;SMALL($B$3:$B$6000,1),(F4-1),""),"")</f>
         <v/>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" s="4" t="str">
-        <f t="shared" ref="F37:F60" si="1">IF(ISNUMBER(F36),IF((F36-1)&gt;MROUND(SMALL($B$3:$B$6000,1),2),(F36-1),""),"")</f>
+        <f t="shared" ref="F37:F60" si="1">IF(ISNUMBER(F36),IF((F36)&gt;SMALL($B$3:$B$6000,1),(F36-1),""),"")</f>
         <v/>
       </c>
     </row>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <t>LAPORAN PENGGUNAAN AIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Alat Ukur      : </t>
+    <t>Alat Ukur      :</t>
   </si>
   <si>
     <t>Flowmeter Electromagnetic</t>
   </si>
   <si>
-    <t xml:space="preserve">Sumber Air   : </t>
+    <t>Sumber Air   :</t>
   </si>
   <si>
     <t>Sumur Tanah 02</t>
@@ -2671,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3535,7 +3535,7 @@
   <sheetPr/>
   <dimension ref="B2:F6047"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -63,16 +63,16 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>( Liter/min )</t>
+    <t>( M3/H )</t>
   </si>
   <si>
-    <t>( M3/min )</t>
-  </si>
-  <si>
-    <t>( Liter )</t>
+    <t>( L/min )</t>
   </si>
   <si>
     <t>( M3 )</t>
+  </si>
+  <si>
+    <t>( L )</t>
   </si>
   <si>
     <t>Avarage / Total</t>
@@ -637,7 +637,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,7 +648,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="24">
-        <f>D13/1000</f>
+        <f>D13*16.667</f>
         <v>0</v>
       </c>
       <c r="F13" s="24">
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="24">
-        <f>F13/1000</f>
+        <f>F13*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -2876,16 +2876,16 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="27">
-        <f t="shared" ref="E14:E36" si="1">D14/1000</f>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
         <v>0</v>
       </c>
       <c r="F14" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="27">
-        <f t="shared" ref="G14:G36" si="2">F14/1000</f>
+      <c r="G14" s="24">
+        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2911,7 +2911,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2930,7 +2930,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2938,7 +2938,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2957,7 +2957,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2965,7 +2965,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2984,7 +2984,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2992,7 +2992,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3011,7 +3011,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3019,7 +3019,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3038,7 +3038,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3046,7 +3046,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3065,7 +3065,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3092,7 +3092,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3100,7 +3100,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3119,7 +3119,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3127,7 +3127,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3146,7 +3146,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3154,7 +3154,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3173,7 +3173,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3181,7 +3181,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3200,7 +3200,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3227,7 +3227,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3235,7 +3235,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3254,7 +3254,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3262,7 +3262,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3281,7 +3281,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3316,7 +3316,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3335,7 +3335,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3343,7 +3343,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3362,7 +3362,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3370,7 +3370,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3389,7 +3389,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3416,7 +3416,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3424,7 +3424,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3443,7 +3443,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3451,7 +3451,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3470,7 +3470,7 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3478,7 +3478,7 @@
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3536,7 +3536,7 @@
   <dimension ref="B2:F6047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,68 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>PT. KANSAI PRAKARSA COATINGS</t>
-  </si>
-  <si>
-    <t>ENGINEERING UNIT CAT</t>
-  </si>
-  <si>
-    <t>LAPORAN PENGGUNAAN AIR</t>
-  </si>
-  <si>
-    <t>Alat Ukur      :</t>
-  </si>
-  <si>
-    <t>Flowmeter Electromagnetic</t>
-  </si>
-  <si>
-    <t>Sumber Air   :</t>
-  </si>
-  <si>
-    <t>Sumur Tanah 02</t>
-  </si>
-  <si>
-    <t>Data update :</t>
-  </si>
-  <si>
-    <t>30/01/2024</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Jam dan Menit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rata-rata Debit Air
-</t>
-  </si>
-  <si>
-    <t>Pemakaian Air</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>( M3/H )</t>
-  </si>
-  <si>
-    <t>( L/min )</t>
-  </si>
-  <si>
-    <t>( M3 )</t>
-  </si>
-  <si>
-    <t>( L )</t>
-  </si>
-  <si>
-    <t>Avarage / Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -94,17 +33,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="8">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="[$-421]dddd;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,22 +50,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -280,30 +200,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -492,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -510,171 +412,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -798,137 +535,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,73 +684,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,1128 +960,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Flow Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.445941610522939"/>
-          <c:y val="0.0350262697022767"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$B$13:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$13:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="976450309"/>
-        <c:axId val="542807230"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="976450309"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>Waktu</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.479392578333868"/>
-              <c:y val="0.867900925694271"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="542807230"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="542807230"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>(L/min)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="976450309"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="222250"/>
-          <a:ext cx="1102360" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="38100" y="7089775"/>
-        <a:ext cx="5937885" cy="2538095"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2669,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
@@ -2686,7 +1235,7 @@
     <col min="7" max="7" width="12.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2694,30 +1243,47 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2725,797 +1291,991 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="4:7">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:14">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:7">
-      <c r="A13" s="22" t="str">
-        <f>RawData!F3</f>
-        <v/>
-      </c>
-      <c r="B13" s="23" t="str">
-        <f>A13</f>
-        <v/>
-      </c>
-      <c r="C13" s="23" t="e">
-        <f>B13+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="24">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
-        <f>D13*16.667</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
-        <f>F13*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="25" t="str">
-        <f>A13</f>
-        <v/>
-      </c>
-      <c r="B14" s="26" t="e">
-        <f>C13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="26" t="e">
-        <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="26" t="e">
-        <f t="shared" ref="B15:B24" si="3">C14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="26" t="e">
-        <f t="shared" ref="B25:B30" si="4">C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" s="26" t="e">
-        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="26" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" s="26" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="26" t="e">
-        <f t="shared" ref="B31:B37" si="6">C30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="26" t="e">
-        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29">
-        <f>AVERAGE(D13:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="29">
-        <f>AVERAGE(E13:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
-        <f>SUM(F13:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30">
-        <f>SUM(G13:G36)</f>
-        <v>0</v>
-      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:14">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:14">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:G6"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
       <formula1>RawData!$F$3:$F$60</formula1>
@@ -3523,10 +2283,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="F13" formula="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3547,16 +2303,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,7 +15,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>PT. KANSAI PRAKARSA COATINGS</t>
+  </si>
+  <si>
+    <t>ENGINEERING UNIT CAT</t>
+  </si>
+  <si>
+    <t>LAPORAN PENGGUNAAN AIR</t>
+  </si>
+  <si>
+    <t>Alat Ukur      :</t>
+  </si>
+  <si>
+    <t>Flowmeter Electromagnetic</t>
+  </si>
+  <si>
+    <t>Sumber Air   :</t>
+  </si>
+  <si>
+    <t>Sumur Tanah 02</t>
+  </si>
+  <si>
+    <t>Data update :</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam dan Menit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata-rata Debit Air
+</t>
+  </si>
+  <si>
+    <t>Pemakaian Air</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>( M3/H )</t>
+  </si>
+  <si>
+    <t>( L/min )</t>
+  </si>
+  <si>
+    <t>( M3 )</t>
+  </si>
+  <si>
+    <t>( L )</t>
+  </si>
+  <si>
+    <t>Avarage / Total</t>
+  </si>
   <si>
     <t>Time</t>
   </si>
@@ -33,14 +94,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="[$-421]dddd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +114,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -200,12 +280,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -394,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -412,6 +510,171 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -535,137 +798,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,7 +947,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,6 +1289,1128 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Flow Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.445941610522939"/>
+          <c:y val="0.0350262697022767"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$B$13:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="hh:mm;@">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$13:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="976450309"/>
+        <c:axId val="542807230"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="976450309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Waktu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.479392578333868"/>
+              <c:y val="0.867900925694271"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542807230"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542807230"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>(L/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976450309"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="222250"/>
+          <a:ext cx="1102360" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38100" y="7089775"/>
+        <a:ext cx="5937885" cy="2538095"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1218,13 +2669,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
@@ -1235,7 +2686,7 @@
     <col min="7" max="7" width="12.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1243,47 +2694,30 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1291,991 +2725,797 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:14">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="4:7">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:14">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:14">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:7">
+      <c r="A13" s="22" t="str">
+        <f>RawData!F3</f>
+        <v/>
+      </c>
+      <c r="B13" s="23" t="str">
+        <f>A13</f>
+        <v/>
+      </c>
+      <c r="C13" s="23" t="e">
+        <f>B13+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="24">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <f>D13*16.667</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <f>F13*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25" t="str">
+        <f>A13</f>
+        <v/>
+      </c>
+      <c r="B14" s="26" t="e">
+        <f>C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="26" t="e">
+        <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="26" t="e">
+        <f t="shared" ref="B15:B24" si="3">C14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="26" t="e">
+        <f t="shared" ref="B25:B30" si="4">C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" s="26" t="e">
+        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="26" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="26" t="e">
+        <f t="shared" ref="B31:B37" si="6">C30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="26" t="e">
+        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="26" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" s="27">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29">
+        <f>AVERAGE(D13:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <f>AVERAGE(E13:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="30">
+        <f>SUM(F13:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30">
+        <f>SUM(G13:G36)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:G6"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
       <formula1>RawData!$F$3:$F$60</formula1>
@@ -2283,6 +3523,10 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="F13" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2303,16 +3547,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,34 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>PT. KANSAI PRAKARSA COATINGS</t>
-  </si>
-  <si>
-    <t>ENGINEERING UNIT CAT</t>
-  </si>
-  <si>
-    <t>LAPORAN PENGGUNAAN AIR</t>
-  </si>
-  <si>
-    <t>Alat Ukur      :</t>
-  </si>
-  <si>
-    <t>Flowmeter Electromagnetic</t>
-  </si>
-  <si>
-    <t>Sumber Air   :</t>
-  </si>
-  <si>
-    <t>Sumur Tanah 02</t>
-  </si>
-  <si>
-    <t>Data update :</t>
-  </si>
-  <si>
-    <t>30/01/2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tanggal</t>
   </si>
@@ -492,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -516,30 +489,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -548,9 +504,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -559,9 +513,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -570,9 +522,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -583,9 +533,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -598,9 +546,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -804,7 +750,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,34 +762,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,22 +892,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,10 +922,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -984,16 +933,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2340,44 +2286,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="222250"/>
-          <a:ext cx="1102360" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2669,13 +2577,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
@@ -2686,7 +2594,7 @@
     <col min="7" max="7" width="12.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2694,30 +2602,29 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2725,19 +2632,19 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2745,88 +2652,84 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="4:7">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:7">
@@ -3485,7 +3388,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="28" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -3507,14 +3410,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
@@ -3547,16 +3448,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tanggal</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>( L )</t>
-  </si>
-  <si>
-    <t>Avarage / Total</t>
   </si>
   <si>
     <t>Time</t>
@@ -253,30 +250,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -628,6 +607,30 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -750,7 +753,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,119 +765,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,14 +954,26 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2305,7 +2320,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38100" y="7089775"/>
+        <a:off x="38100" y="7115175"/>
         <a:ext cx="5937885" cy="2538095"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2579,8 +2594,8 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2634,7 +2649,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2644,7 +2659,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="15.5" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3360,54 +3375,41 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="26" t="e">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="26" t="e">
+      <c r="C36" s="29" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="30">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="30">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29">
-        <f>AVERAGE(D13:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="29">
-        <f>AVERAGE(E13:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
-        <f>SUM(F13:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30">
-        <f>SUM(G13:G36)</f>
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3448,16 +3450,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,38 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Jam dan Menit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rata-rata Debit Air
-</t>
-  </si>
-  <si>
-    <t>Pemakaian Air</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>( M3/H )</t>
-  </si>
-  <si>
-    <t>( L/min )</t>
-  </si>
-  <si>
-    <t>( M3 )</t>
-  </si>
-  <si>
-    <t>( L )</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -444,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -463,131 +432,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -753,7 +597,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,34 +609,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,46 +747,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -954,16 +798,16 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +817,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,1090 +1097,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Flow Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.445941610522939"/>
-          <c:y val="0.0350262697022767"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$B$13:$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" c:formatCode="hh:mm;@">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="hh:mm;@">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$13:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="976450309"/>
-        <c:axId val="542807230"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="976450309"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>Waktu</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.479392578333868"/>
-              <c:y val="0.867900925694271"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="542807230"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="542807230"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>(L/min)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="976450309"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="38100" y="7115175"/>
-        <a:ext cx="5937885" cy="2538095"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2592,13 +1355,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
@@ -2689,7 +1452,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2698,8 +1461,10 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:8">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:10">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2708,46 +1473,34 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>2</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:7">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:10">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="22" t="str">
         <f>RawData!F3</f>
         <v/>
@@ -2764,18 +1517,12 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
-        <f>D13*16.667</f>
-        <v>0</v>
-      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="24">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
-        <f>F13*1000</f>
-        <v>0</v>
-      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="25" t="str">
@@ -2794,23 +1541,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="24">
-        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
-        <v>0</v>
-      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
-        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
-        <v>0</v>
-      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="26" t="e">
-        <f t="shared" ref="B15:B24" si="3">C14</f>
+        <f t="shared" ref="B15:B24" si="1">C14</f>
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="26" t="e">
@@ -2821,23 +1562,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E15" s="24"/>
       <c r="F15" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C16" s="26" t="e">
@@ -2848,23 +1583,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E16" s="24"/>
       <c r="F16" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C17" s="26" t="e">
@@ -2875,23 +1604,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C18" s="26" t="e">
@@ -2902,23 +1625,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C19" s="26" t="e">
@@ -2929,23 +1646,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C20" s="26" t="e">
@@ -2956,23 +1667,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E20" s="24"/>
       <c r="F20" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C21" s="26" t="e">
@@ -2983,23 +1688,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E21" s="24"/>
       <c r="F21" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C22" s="26" t="e">
@@ -3010,23 +1709,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E22" s="24"/>
       <c r="F22" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C23" s="26" t="e">
@@ -3037,23 +1730,17 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E23" s="24"/>
       <c r="F23" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="C24" s="26" t="e">
@@ -3064,342 +1751,264 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="26" t="e">
-        <f t="shared" ref="B25:B30" si="4">C24</f>
+        <f t="shared" ref="B25:B30" si="2">C24</f>
         <v>#VALUE!</v>
       </c>
       <c r="C25" s="26" t="e">
-        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
+        <f t="shared" ref="C25:C30" si="3">B25+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D25" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E25" s="24"/>
       <c r="F25" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C26" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="D26" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C27" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E27" s="24"/>
       <c r="F27" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C28" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="D28" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C29" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E29" s="24"/>
       <c r="F29" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C30" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E30" s="24"/>
       <c r="F30" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="26" t="e">
-        <f t="shared" ref="B31:B37" si="6">C30</f>
+        <f t="shared" ref="B31:B37" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
       <c r="C31" s="26" t="e">
-        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
+        <f t="shared" ref="C31:C37" si="5">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E31" s="24"/>
       <c r="F31" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="26" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="26" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E32" s="24"/>
       <c r="F32" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="26" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="26" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E33" s="24"/>
       <c r="F33" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="26" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C34" s="26" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D34" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E34" s="24"/>
       <c r="F34" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="26" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C35" s="26" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E35" s="24"/>
       <c r="F35" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="28"/>
       <c r="B36" s="29" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C36" s="29" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D36" s="30">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E36" s="31"/>
       <c r="F36" s="30">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="32"/>
@@ -3412,12 +2021,8 @@
       <c r="H37" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="1">
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
@@ -3429,7 +2034,6 @@
   <ignoredErrors>
     <ignoredError sqref="F13" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3450,16 +2054,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,7 +15,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>PT. KANSAI PRAKARSA COATINGS</t>
+  </si>
+  <si>
+    <t>ENGINEERING UNIT CAT</t>
+  </si>
+  <si>
+    <t>LAPORAN PENGGUNAAN AIR</t>
+  </si>
+  <si>
+    <t>Alat Ukur      :</t>
+  </si>
+  <si>
+    <t>Flowmeter Electromagnetic</t>
+  </si>
+  <si>
+    <t>Sumber Air   :</t>
+  </si>
+  <si>
+    <t>Sumur Tanah 02</t>
+  </si>
+  <si>
+    <t>Data update :</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam dan Menit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata-rata Debit Air
+</t>
+  </si>
+  <si>
+    <t>Pemakaian Air</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>( M3/H )</t>
+  </si>
+  <si>
+    <t>( L/min )</t>
+  </si>
+  <si>
+    <t>( M3 )</t>
+  </si>
+  <si>
+    <t>( L )</t>
+  </si>
+  <si>
+    <t>Avarage / Total</t>
+  </si>
   <si>
     <t>Time</t>
   </si>
@@ -219,12 +280,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -413,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -438,13 +517,102 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -459,7 +627,44 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,7 +675,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,7 +804,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,119 +816,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,54 +946,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -798,29 +1005,14 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,6 +1289,1128 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Flow Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.445941610522939"/>
+          <c:y val="0.0350262697022767"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$B$13:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="hh:mm;@">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$13:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="976450309"/>
+        <c:axId val="542807230"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="976450309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Waktu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.479392578333868"/>
+              <c:y val="0.867900925694271"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542807230"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542807230"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>(L/min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976450309"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="222250"/>
+          <a:ext cx="1102360" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38100" y="7089775"/>
+        <a:ext cx="5937885" cy="2538095"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1355,13 +2669,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
@@ -1372,7 +2686,7 @@
     <col min="7" max="7" width="12.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1380,29 +2694,30 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1410,19 +2725,19 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="15.5" spans="1:8">
-      <c r="A5" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="15.5" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1430,77 +2745,91 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="4:7">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:7">
       <c r="A13" s="22" t="str">
         <f>RawData!F3</f>
         <v/>
@@ -1517,12 +2846,18 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24">
+        <f>D13*16.667</f>
+        <v>0</v>
+      </c>
       <c r="F13" s="24">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="24">
+        <f>F13*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="25" t="str">
@@ -1541,17 +2876,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24">
+        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="26" t="e">
-        <f t="shared" ref="B15:B24" si="1">C14</f>
+        <f t="shared" ref="B15:B24" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="26" t="e">
@@ -1562,17 +2903,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C16" s="26" t="e">
@@ -1583,17 +2930,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C17" s="26" t="e">
@@ -1604,17 +2957,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C18" s="26" t="e">
@@ -1625,17 +2984,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C19" s="26" t="e">
@@ -1646,17 +3011,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C20" s="26" t="e">
@@ -1667,17 +3038,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C21" s="26" t="e">
@@ -1688,17 +3065,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C22" s="26" t="e">
@@ -1709,17 +3092,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C23" s="26" t="e">
@@ -1730,17 +3119,23 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C24" s="26" t="e">
@@ -1751,278 +3146,375 @@
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="26" t="e">
-        <f t="shared" ref="B25:B30" si="2">C24</f>
+        <f t="shared" ref="B25:B30" si="4">C24</f>
         <v>#VALUE!</v>
       </c>
       <c r="C25" s="26" t="e">
-        <f t="shared" ref="C25:C30" si="3">B25+(1/24)</f>
+        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D25" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="26" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C26" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D26" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="26" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C27" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="26" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C28" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D28" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="26" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C29" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="26" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="C30" s="26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="26" t="e">
-        <f t="shared" ref="B31:B37" si="4">C30</f>
+        <f t="shared" ref="B31:B37" si="6">C30</f>
         <v>#VALUE!</v>
       </c>
       <c r="C31" s="26" t="e">
-        <f t="shared" ref="C31:C37" si="5">B31+(1/24)</f>
+        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C32" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C33" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C34" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D34" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="C35" s="26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="e">
-        <f t="shared" si="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="29" t="e">
-        <f t="shared" si="5"/>
+      <c r="C36" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30">
+      <c r="E36" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
+      <c r="G36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29">
+        <f>AVERAGE(D13:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <f>AVERAGE(E13:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="30">
+        <f>SUM(F13:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30">
+        <f>SUM(G13:G36)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
@@ -2034,6 +3526,7 @@
   <ignoredErrors>
     <ignoredError sqref="F13" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2054,16 +3547,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,68 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>PT. KANSAI PRAKARSA COATINGS</t>
-  </si>
-  <si>
-    <t>ENGINEERING UNIT CAT</t>
-  </si>
-  <si>
-    <t>LAPORAN PENGGUNAAN AIR</t>
-  </si>
-  <si>
-    <t>Alat Ukur      :</t>
-  </si>
-  <si>
-    <t>Flowmeter Electromagnetic</t>
-  </si>
-  <si>
-    <t>Sumber Air   :</t>
-  </si>
-  <si>
-    <t>Sumur Tanah 02</t>
-  </si>
-  <si>
-    <t>Data update :</t>
-  </si>
-  <si>
-    <t>30/01/2024</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Jam dan Menit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rata-rata Debit Air
-</t>
-  </si>
-  <si>
-    <t>Pemakaian Air</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>( M3/H )</t>
-  </si>
-  <si>
-    <t>( L/min )</t>
-  </si>
-  <si>
-    <t>( M3 )</t>
-  </si>
-  <si>
-    <t>( L )</t>
-  </si>
-  <si>
-    <t>Avarage / Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -104,7 +43,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="[$-421]dddd;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,22 +53,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -280,30 +203,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -492,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -517,102 +422,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -627,44 +443,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -675,9 +454,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -798,137 +575,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,54 +723,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1005,14 +743,26 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2340,44 +2090,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="222250"/>
-          <a:ext cx="1102360" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2397,7 +2109,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38100" y="7089775"/>
+        <a:off x="38100" y="7080250"/>
         <a:ext cx="5937885" cy="2538095"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2669,10 +2381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -2696,22 +2408,18 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2727,32 +2435,26 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2760,12 +2462,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2773,748 +2471,572 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="13" customHeight="1" spans="4:7">
+    <row r="10" ht="13" customHeight="1" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:7">
-      <c r="A13" s="22" t="str">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="10" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="23" t="e">
+      <c r="C13" s="10" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="11">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
-        <f>D13*16.667</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
-        <f>F13*1000</f>
-        <v>0</v>
-      </c>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25" t="str">
+      <c r="A14" s="12" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="B14" s="26" t="e">
+      <c r="B14" s="13" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="26" t="e">
+      <c r="C14" s="13" t="e">
         <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="14">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="24">
-        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="E14" s="11"/>
+      <c r="F14" s="14">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
-        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
-        <v>0</v>
-      </c>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="26" t="e">
-        <f t="shared" ref="B15:B24" si="3">C14</f>
+      <c r="B15" s="13" t="e">
+        <f t="shared" ref="B15:B24" si="1">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="26" t="e">
+      <c r="C15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="14">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="E15" s="11"/>
+      <c r="F15" s="14">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="e">
+      <c r="E16" s="11"/>
+      <c r="F16" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="13" t="e">
+        <f t="shared" ref="B25:B30" si="2">C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" s="13" t="e">
+        <f t="shared" ref="C25:C30" si="3">B25+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="26" t="e">
-        <f t="shared" si="0"/>
+      <c r="D26" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="26" t="e">
+      <c r="C27" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="26" t="e">
-        <f t="shared" si="0"/>
+      <c r="D27" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="26" t="e">
+      <c r="C28" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="26" t="e">
-        <f t="shared" si="0"/>
+      <c r="D28" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="26" t="e">
+      <c r="C29" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="26" t="e">
-        <f t="shared" si="0"/>
+      <c r="D29" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="26" t="e">
+      <c r="C30" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="26" t="e">
-        <f t="shared" si="0"/>
+      <c r="D30" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="13" t="e">
+        <f t="shared" ref="B31:B37" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
+      <c r="C31" s="13" t="e">
+        <f t="shared" ref="C31:C37" si="5">B31+(1/24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="26" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="26" t="e">
-        <f t="shared" ref="B25:B30" si="4">C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" s="26" t="e">
-        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="26" t="e">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="26" t="e">
+      <c r="C32" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
+      <c r="D32" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="24">
-        <f t="shared" si="1"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="26" t="e">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="26" t="e">
+      <c r="C33" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
+      <c r="D33" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="24">
-        <f t="shared" si="1"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="26" t="e">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="26" t="e">
+      <c r="C34" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
+      <c r="D34" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="24">
-        <f t="shared" si="1"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="26" t="e">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="26" t="e">
+      <c r="C35" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
+      <c r="D35" s="14">
+        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="14">
+        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="26" t="e">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="26" t="e">
+      <c r="C36" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="26" t="e">
-        <f t="shared" ref="B31:B37" si="6">C30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="26" t="e">
-        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="27">
-        <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
-        <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="26" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" s="26" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="D36" s="17">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="27">
+      <c r="E36" s="18"/>
+      <c r="F36" s="17">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29">
-        <f>AVERAGE(D13:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="29">
-        <f>AVERAGE(E13:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
-        <f>SUM(F13:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30">
-        <f>SUM(G13:G36)</f>
-        <v>0</v>
-      </c>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="1">
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A5:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
@@ -3547,16 +3069,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,7 +15,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>PT. KANSAI PRAKARSA COATINGS</t>
+  </si>
+  <si>
+    <t>ENGINEERING UNIT CAT</t>
+  </si>
+  <si>
+    <t>LAPORAN PENGGUNAAN AIR</t>
+  </si>
+  <si>
+    <t>Alat Ukur      :</t>
+  </si>
+  <si>
+    <t>Flowmeter Electromagnetic</t>
+  </si>
+  <si>
+    <t>Sumber Air   :</t>
+  </si>
+  <si>
+    <t>Sumur Tanah 02</t>
+  </si>
+  <si>
+    <t>Data update :</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Jam dan Menit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata-rata Debit Air
+</t>
+  </si>
+  <si>
+    <t>Pemakaian Air</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>( M3/H )</t>
+  </si>
+  <si>
+    <t>( L/min )</t>
+  </si>
+  <si>
+    <t>( M3 )</t>
+  </si>
+  <si>
+    <t>( L )</t>
+  </si>
+  <si>
+    <t>Avarage / Total</t>
+  </si>
   <si>
     <t>Time</t>
   </si>
@@ -43,7 +104,7 @@
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="[$-421]dddd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +114,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -203,12 +280,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -397,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -422,13 +517,102 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -443,7 +627,44 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,7 +675,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,137 +798,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,15 +946,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -743,26 +1005,14 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2090,6 +2340,44 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="222250"/>
+          <a:ext cx="1102360" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2109,7 +2397,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38100" y="7080250"/>
+        <a:off x="38100" y="7089775"/>
         <a:ext cx="5937885" cy="2538095"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2381,10 +2669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -2408,18 +2696,22 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2435,26 +2727,32 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2462,8 +2760,12 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2471,572 +2773,748 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="13" customHeight="1" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" ht="13" customHeight="1" spans="4:7">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9" t="str">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:7">
+      <c r="A13" s="22" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="23" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="10" t="e">
+      <c r="C13" s="23" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="24">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="24">
+        <f>D13*16.667</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="24">
+        <f>F13*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12" t="str">
+      <c r="A14" s="25" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="B14" s="13" t="e">
+      <c r="B14" s="26" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="13" t="e">
+      <c r="C14" s="26" t="e">
         <f t="shared" ref="C14:C24" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14">
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="24">
+        <f t="shared" ref="G14:G36" si="2">F14*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
-      <c r="B15" s="13" t="e">
-        <f t="shared" ref="B15:B24" si="1">C14</f>
+      <c r="B15" s="26" t="e">
+        <f t="shared" ref="B15:B24" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="13" t="e">
+      <c r="C15" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14">
+      <c r="E15" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
-      <c r="B16" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B16" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="13" t="e">
+      <c r="C16" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="14">
+      <c r="E16" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
-      <c r="B17" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B17" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="13" t="e">
+      <c r="C17" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="14">
+      <c r="E17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
-      <c r="B18" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B18" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="13" t="e">
+      <c r="C18" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="14">
+      <c r="E18" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B19" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="13" t="e">
+      <c r="C19" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="14">
+      <c r="E19" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B20" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="13" t="e">
+      <c r="C20" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="14">
+      <c r="E20" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
-      <c r="B21" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B21" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="13" t="e">
+      <c r="C21" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="14">
+      <c r="E21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
-      <c r="B22" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B22" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="13" t="e">
+      <c r="C22" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="14">
+      <c r="E22" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
-      <c r="B23" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B23" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="13" t="e">
+      <c r="C23" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="14">
+      <c r="E23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="B24" s="26" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="13" t="e">
+      <c r="C24" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="14">
+      <c r="E24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
-      <c r="B25" s="13" t="e">
-        <f t="shared" ref="B25:B30" si="2">C24</f>
+      <c r="B25" s="26" t="e">
+        <f t="shared" ref="B25:B30" si="4">C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="13" t="e">
-        <f t="shared" ref="C25:C30" si="3">B25+(1/24)</f>
+      <c r="C25" s="26" t="e">
+        <f t="shared" ref="C25:C30" si="5">B25+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="14">
+      <c r="E25" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="B26" s="26" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="C26" s="26" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="14">
+      <c r="E26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="B27" s="26" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="C27" s="26" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="14">
+      <c r="E27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="B28" s="26" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="C28" s="26" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="14">
+      <c r="E28" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="B29" s="26" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="C29" s="26" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="14">
+      <c r="E29" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
-      <c r="B30" s="13" t="e">
-        <f t="shared" si="2"/>
+      <c r="B30" s="26" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="C30" s="26" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="14">
+      <c r="E30" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
-      <c r="B31" s="13" t="e">
-        <f t="shared" ref="B31:B37" si="4">C30</f>
+      <c r="B31" s="26" t="e">
+        <f t="shared" ref="B31:B37" si="6">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="13" t="e">
-        <f t="shared" ref="C31:C37" si="5">B31+(1/24)</f>
+      <c r="C31" s="26" t="e">
+        <f t="shared" ref="C31:C37" si="7">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="14">
+      <c r="E31" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="13" t="e">
-        <f t="shared" si="4"/>
+      <c r="B32" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="13" t="e">
-        <f t="shared" si="5"/>
+      <c r="C32" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="14">
+      <c r="E32" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
-      <c r="B33" s="13" t="e">
-        <f t="shared" si="4"/>
+      <c r="B33" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="13" t="e">
-        <f t="shared" si="5"/>
+      <c r="C33" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="14">
+      <c r="E33" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
-      <c r="B34" s="13" t="e">
-        <f t="shared" si="4"/>
+      <c r="B34" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="13" t="e">
-        <f t="shared" si="5"/>
+      <c r="C34" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="14">
+      <c r="E34" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
-      <c r="B35" s="13" t="e">
-        <f t="shared" si="4"/>
+      <c r="B35" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="13" t="e">
-        <f t="shared" si="5"/>
+      <c r="C35" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="14">
+      <c r="E35" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="e">
-        <f t="shared" si="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="26" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="16" t="e">
-        <f t="shared" si="5"/>
+      <c r="C36" s="26" t="e">
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="27">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17">
+      <c r="E36" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="A37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29">
+        <f>AVERAGE(D13:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <f>AVERAGE(E13:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="30">
+        <f>SUM(F13:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30">
+        <f>SUM(G13:G36)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A5:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
@@ -3069,16 +3547,16 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6">

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -15,7 +15,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>PT. KANSAI PRAKARSA COATINGS</t>
+  </si>
+  <si>
+    <t>ENGINEERING UNIT CAT</t>
+  </si>
+  <si>
+    <t>LAPORAN PENGGUNAAN AIR</t>
+  </si>
+  <si>
+    <t>ALAT UKUR</t>
+  </si>
+  <si>
+    <t>FLOW METER ELECTROMAGNETIC</t>
+  </si>
+  <si>
+    <t>SUMBER</t>
+  </si>
+  <si>
+    <t>SUMUR TANAH 02</t>
+  </si>
+  <si>
+    <t>DATE UPDATE</t>
+  </si>
   <si>
     <t>Tanggal</t>
   </si>
@@ -29,10 +53,10 @@
     <t>Pemakaian Air</t>
   </si>
   <si>
-    <t>start</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>finish</t>
+    <t>Finish</t>
   </si>
   <si>
     <t>M3/H</t>
@@ -45,6 +69,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>AVERAGE | FLOW</t>
   </si>
   <si>
     <t>Time</t>
@@ -70,7 +97,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +108,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -424,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -459,6 +506,43 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,137 +664,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,8 +817,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,6 +1125,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51435</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4" descr="logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51435" y="171450"/>
+          <a:ext cx="1101725" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1269,690 +1426,788 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A11:G36"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="12.8181818181818"/>
+    <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="str">
+      <c r="B9" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-      <c r="B13" t="str">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="str">
+        <f>RawData!F3</f>
+        <v/>
+      </c>
+      <c r="B13" s="16" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" t="e">
+      <c r="C13" s="16" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="16">
         <f>D13*16.667</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <f>F13*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="e">
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" t="e">
+      <c r="C14" s="16" t="e">
         <f t="shared" ref="C14:C30" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16">
         <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="16">
         <f t="shared" ref="G14:G36" si="2">F14*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="e">
+    <row r="15" spans="1:7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="e">
         <f t="shared" ref="B15:B30" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" t="e">
+      <c r="C15" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="e">
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" t="e">
+      <c r="C16" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="e">
+    <row r="17" spans="1:7">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" t="e">
+      <c r="C17" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="e">
+    <row r="18" spans="1:7">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" t="e">
+      <c r="C18" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="e">
+    <row r="19" spans="1:7">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" t="e">
+      <c r="C19" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="e">
+    <row r="20" spans="1:7">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" t="e">
+      <c r="C20" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="e">
+    <row r="21" spans="1:7">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C21" t="e">
+      <c r="C21" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="e">
+    <row r="22" spans="1:7">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" t="e">
+      <c r="C22" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="e">
+    <row r="23" spans="1:7">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" t="e">
+      <c r="C23" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="e">
+    <row r="24" spans="1:7">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" t="e">
+      <c r="C24" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="e">
+    <row r="25" spans="1:7">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" t="e">
+      <c r="C25" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="e">
+    <row r="26" spans="1:7">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" t="e">
+      <c r="C26" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="e">
+    <row r="27" spans="1:7">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" t="e">
+      <c r="C27" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="e">
+    <row r="28" spans="1:7">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" t="e">
+      <c r="C28" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="e">
+    <row r="29" spans="1:7">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" t="e">
+      <c r="C29" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="e">
+    <row r="30" spans="1:7">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" t="e">
+      <c r="C30" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="e">
+    <row r="31" spans="1:7">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="e">
         <f t="shared" ref="B31:B36" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" t="e">
+      <c r="C31" s="16" t="e">
         <f t="shared" ref="C31:C36" si="5">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="e">
+    <row r="32" spans="1:7">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" t="e">
+      <c r="C32" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="e">
+    <row r="33" spans="1:7">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C33" t="e">
+      <c r="C33" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="e">
+    <row r="34" spans="1:7">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" t="e">
+      <c r="C34" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="e">
+    <row r="35" spans="1:7">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" t="e">
+      <c r="C35" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="e">
+    <row r="36" spans="1:7">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" t="e">
+      <c r="C36" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="16">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="16">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19">
+        <f>AVERAGE(D13:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <f>AVERAGE(E13:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="20">
+        <f>SUM(F13:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <f>SUM(G13:G36)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1976,24 +2231,22 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="6" t="str">
         <f>IF(ISNUMBER(MROUND(LARGE(B3:B6000,1),1)),MROUND(LARGE(B3:B6000,1),1),"")</f>
         <v/>
@@ -2003,7 +2256,6 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="6" t="str">
         <f>IF(ISNUMBER(F3),IF((F3)&gt;SMALL($B$3:$B$6000,1),(F3-1),""),"")</f>
         <v/>
@@ -2013,7 +2265,6 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
       <c r="F5" s="6" t="str">
         <f>IF(ISNUMBER(F4),IF((F4)&gt;SMALL($B$3:$B$6000,1),(F4-1),""),"")</f>
         <v/>
@@ -2023,7 +2274,6 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="6" t="str">
         <f>IF(ISNUMBER(F5),IF((F5)&gt;SMALL($B$3:$B$6000,1),(F5-1),""),"")</f>
         <v/>
@@ -2033,7 +2283,6 @@
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="6" t="str">
         <f>IF(ISNUMBER(F6),IF((F6)&gt;SMALL($B$3:$B$6000,1),(F6-1),""),"")</f>
         <v/>
@@ -2043,7 +2292,6 @@
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="6" t="str">
         <f>IF(ISNUMBER(F7),IF((F7)&gt;SMALL($B$3:$B$6000,1),(F7-1),""),"")</f>
         <v/>
@@ -2053,7 +2301,6 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="6" t="str">
         <f>IF(ISNUMBER(F8),IF((F8)&gt;SMALL($B$3:$B$6000,1),(F8-1),""),"")</f>
         <v/>
@@ -2063,7 +2310,6 @@
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
       <c r="F10" s="6" t="str">
         <f>IF(ISNUMBER(F9),IF((F9)&gt;SMALL($B$3:$B$6000,1),(F9-1),""),"")</f>
         <v/>
@@ -2073,7 +2319,6 @@
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="6" t="str">
         <f>IF(ISNUMBER(F10),IF((F10)&gt;SMALL($B$3:$B$6000,1),(F10-1),""),"")</f>
         <v/>
@@ -2083,7 +2328,6 @@
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="6" t="str">
         <f>IF(ISNUMBER(F11),IF((F11)&gt;SMALL($B$3:$B$6000,1),(F11-1),""),"")</f>
         <v/>
@@ -2093,7 +2337,6 @@
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="6" t="str">
         <f>IF(ISNUMBER(F12),IF((F12)&gt;SMALL($B$3:$B$6000,1),(F12-1),""),"")</f>
         <v/>
@@ -2103,7 +2346,6 @@
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
       <c r="F14" s="6" t="str">
         <f>IF(ISNUMBER(F13),IF((F13)&gt;SMALL($B$3:$B$6000,1),(F13-1),""),"")</f>
         <v/>
@@ -2113,7 +2355,6 @@
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="6" t="str">
         <f>IF(ISNUMBER(F14),IF((F14)&gt;SMALL($B$3:$B$6000,1),(F14-1),""),"")</f>
         <v/>
@@ -2123,7 +2364,6 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="6" t="str">
         <f>IF(ISNUMBER(F15),IF((F15)&gt;SMALL($B$3:$B$6000,1),(F15-1),""),"")</f>
         <v/>
@@ -2133,7 +2373,6 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="6" t="str">
         <f>IF(ISNUMBER(F16),IF((F16)&gt;SMALL($B$3:$B$6000,1),(F16-1),""),"")</f>
         <v/>
@@ -2143,7 +2382,6 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="6" t="str">
         <f>IF(ISNUMBER(F17),IF((F17)&gt;SMALL($B$3:$B$6000,1),(F17-1),""),"")</f>
         <v/>
@@ -2153,7 +2391,6 @@
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="6" t="str">
         <f>IF(ISNUMBER(F18),IF((F18)&gt;SMALL($B$3:$B$6000,1),(F18-1),""),"")</f>
         <v/>
@@ -2163,7 +2400,6 @@
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
       <c r="F20" s="6" t="str">
         <f>IF(ISNUMBER(F19),IF((F19)&gt;SMALL($B$3:$B$6000,1),(F19-1),""),"")</f>
         <v/>
@@ -2173,7 +2409,6 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="6" t="str">
         <f>IF(ISNUMBER(F20),IF((F20)&gt;SMALL($B$3:$B$6000,1),(F20-1),""),"")</f>
         <v/>
@@ -2183,7 +2418,6 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
       <c r="F22" s="6" t="str">
         <f>IF(ISNUMBER(F21),IF((F21)&gt;SMALL($B$3:$B$6000,1),(F21-1),""),"")</f>
         <v/>
@@ -2193,7 +2427,6 @@
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="6" t="str">
         <f>IF(ISNUMBER(F22),IF((F22)&gt;SMALL($B$3:$B$6000,1),(F22-1),""),"")</f>
         <v/>
@@ -2203,7 +2436,6 @@
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="6" t="str">
         <f>IF(ISNUMBER(F23),IF((F23)&gt;SMALL($B$3:$B$6000,1),(F23-1),""),"")</f>
         <v/>
@@ -2213,7 +2445,6 @@
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="6" t="str">
         <f>IF(ISNUMBER(F24),IF((F24)&gt;SMALL($B$3:$B$6000,1),(F24-1),""),"")</f>
         <v/>
@@ -2223,7 +2454,6 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
       <c r="F26" s="6" t="str">
         <f>IF(ISNUMBER(F25),IF((F25)&gt;SMALL($B$3:$B$6000,1),(F25-1),""),"")</f>
         <v/>
@@ -2233,7 +2463,6 @@
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="6" t="str">
         <f>IF(ISNUMBER(F26),IF((F26)&gt;SMALL($B$3:$B$6000,1),(F26-1),""),"")</f>
         <v/>
@@ -2243,7 +2472,6 @@
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="6" t="str">
         <f>IF(ISNUMBER(F27),IF((F27)&gt;SMALL($B$3:$B$6000,1),(F27-1),""),"")</f>
         <v/>
@@ -2253,7 +2481,6 @@
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
       <c r="F29" s="6" t="str">
         <f>IF(ISNUMBER(F28),IF((F28)&gt;SMALL($B$3:$B$6000,1),(F28-1),""),"")</f>
         <v/>
@@ -2263,7 +2490,6 @@
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
       <c r="F30" s="6" t="str">
         <f>IF(ISNUMBER(F29),IF((F29)&gt;SMALL($B$3:$B$6000,1),(F29-1),""),"")</f>
         <v/>
@@ -2273,7 +2499,6 @@
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="6" t="str">
         <f>IF(ISNUMBER(F30),IF((F30)&gt;SMALL($B$3:$B$6000,1),(F30-1),""),"")</f>
         <v/>
@@ -2283,7 +2508,6 @@
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="6" t="str">
         <f>IF(ISNUMBER(F31),IF((F31)&gt;SMALL($B$3:$B$6000,1),(F31-1),""),"")</f>
         <v/>
@@ -2293,7 +2517,6 @@
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="6" t="str">
         <f>IF(ISNUMBER(F32),IF((F32)&gt;SMALL($B$3:$B$6000,1),(F32-1),""),"")</f>
         <v/>
@@ -2303,7 +2526,6 @@
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="6" t="str">
         <f>IF(ISNUMBER(F33),IF((F33)&gt;SMALL($B$3:$B$6000,1),(F33-1),""),"")</f>
         <v/>
@@ -2313,7 +2535,6 @@
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="6" t="str">
         <f>IF(ISNUMBER(F34),IF((F34)&gt;SMALL($B$3:$B$6000,1),(F34-1),""),"")</f>
         <v/>
@@ -2323,7 +2544,6 @@
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
       <c r="F36" s="6" t="str">
         <f>IF(ISNUMBER(F35),IF((F35)&gt;SMALL($B$3:$B$6000,1),(F35-1),""),"")</f>
         <v/>
@@ -2333,7 +2553,6 @@
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="6" t="str">
         <f>IF(ISNUMBER(F36),IF((F36)&gt;SMALL($B$3:$B$6000,1),(F36-1),""),"")</f>
         <v/>
@@ -2343,7 +2562,6 @@
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="6" t="str">
         <f>IF(ISNUMBER(F37),IF((F37)&gt;SMALL($B$3:$B$6000,1),(F37-1),""),"")</f>
         <v/>
@@ -2353,7 +2571,6 @@
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="6" t="str">
         <f>IF(ISNUMBER(F38),IF((F38)&gt;SMALL($B$3:$B$6000,1),(F38-1),""),"")</f>
         <v/>
@@ -2363,7 +2580,6 @@
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="6" t="str">
         <f>IF(ISNUMBER(F39),IF((F39)&gt;SMALL($B$3:$B$6000,1),(F39-1),""),"")</f>
         <v/>
@@ -2373,7 +2589,6 @@
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="6" t="str">
         <f>IF(ISNUMBER(F40),IF((F40)&gt;SMALL($B$3:$B$6000,1),(F40-1),""),"")</f>
         <v/>
@@ -2383,7 +2598,6 @@
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="6" t="str">
         <f>IF(ISNUMBER(F41),IF((F41)&gt;SMALL($B$3:$B$6000,1),(F41-1),""),"")</f>
         <v/>
@@ -2393,7 +2607,6 @@
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="1"/>
       <c r="F43" s="6" t="str">
         <f>IF(ISNUMBER(F42),IF((F42)&gt;SMALL($B$3:$B$6000,1),(F42-1),""),"")</f>
         <v/>
@@ -2403,7 +2616,6 @@
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="1"/>
       <c r="F44" s="6" t="str">
         <f>IF(ISNUMBER(F43),IF((F43)&gt;SMALL($B$3:$B$6000,1),(F43-1),""),"")</f>
         <v/>
@@ -2413,7 +2625,6 @@
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="1"/>
       <c r="F45" s="6" t="str">
         <f>IF(ISNUMBER(F44),IF((F44)&gt;SMALL($B$3:$B$6000,1),(F44-1),""),"")</f>
         <v/>
@@ -2423,7 +2634,6 @@
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="1"/>
       <c r="F46" s="6" t="str">
         <f>IF(ISNUMBER(F45),IF((F45)&gt;SMALL($B$3:$B$6000,1),(F45-1),""),"")</f>
         <v/>
@@ -2433,7 +2643,6 @@
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="6" t="str">
         <f>IF(ISNUMBER(F46),IF((F46)&gt;SMALL($B$3:$B$6000,1),(F46-1),""),"")</f>
         <v/>
@@ -2443,7 +2652,6 @@
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="1"/>
       <c r="F48" s="6" t="str">
         <f>IF(ISNUMBER(F47),IF((F47)&gt;SMALL($B$3:$B$6000,1),(F47-1),""),"")</f>
         <v/>
@@ -2453,7 +2661,6 @@
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="1"/>
       <c r="F49" s="6" t="str">
         <f>IF(ISNUMBER(F48),IF((F48)&gt;SMALL($B$3:$B$6000,1),(F48-1),""),"")</f>
         <v/>
@@ -2463,7 +2670,6 @@
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="6" t="str">
         <f>IF(ISNUMBER(F49),IF((F49)&gt;SMALL($B$3:$B$6000,1),(F49-1),""),"")</f>
         <v/>
@@ -2473,7 +2679,6 @@
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="1"/>
       <c r="F51" s="6" t="str">
         <f>IF(ISNUMBER(F50),IF((F50)&gt;SMALL($B$3:$B$6000,1),(F50-1),""),"")</f>
         <v/>
@@ -2483,7 +2688,6 @@
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
       <c r="F52" s="6" t="str">
         <f>IF(ISNUMBER(F51),IF((F51)&gt;SMALL($B$3:$B$6000,1),(F51-1),""),"")</f>
         <v/>
@@ -2493,7 +2697,6 @@
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="1"/>
       <c r="F53" s="6" t="str">
         <f>IF(ISNUMBER(F52),IF((F52)&gt;SMALL($B$3:$B$6000,1),(F52-1),""),"")</f>
         <v/>
@@ -2503,7 +2706,6 @@
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="1"/>
       <c r="F54" s="6" t="str">
         <f>IF(ISNUMBER(F53),IF((F53)&gt;SMALL($B$3:$B$6000,1),(F53-1),""),"")</f>
         <v/>
@@ -2513,7 +2715,6 @@
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="1"/>
       <c r="F55" s="6" t="str">
         <f>IF(ISNUMBER(F54),IF((F54)&gt;SMALL($B$3:$B$6000,1),(F54-1),""),"")</f>
         <v/>
@@ -2523,7 +2724,6 @@
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="6" t="str">
         <f>IF(ISNUMBER(F55),IF((F55)&gt;SMALL($B$3:$B$6000,1),(F55-1),""),"")</f>
         <v/>
@@ -2533,7 +2733,6 @@
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="1"/>
       <c r="F57" s="6" t="str">
         <f>IF(ISNUMBER(F56),IF((F56)&gt;SMALL($B$3:$B$6000,1),(F56-1),""),"")</f>
         <v/>
@@ -2543,7 +2742,6 @@
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="1"/>
       <c r="F58" s="6" t="str">
         <f>IF(ISNUMBER(F57),IF((F57)&gt;SMALL($B$3:$B$6000,1),(F57-1),""),"")</f>
         <v/>
@@ -2553,7 +2751,6 @@
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="1"/>
       <c r="F59" s="6" t="str">
         <f>IF(ISNUMBER(F58),IF((F58)&gt;SMALL($B$3:$B$6000,1),(F58-1),""),"")</f>
         <v/>
@@ -2563,7 +2760,6 @@
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="1"/>
       <c r="F60" s="6" t="str">
         <f>IF(ISNUMBER(F59),IF((F59)&gt;SMALL($B$3:$B$6000,1),(F59-1),""),"")</f>
         <v/>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -794,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,14 +832,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,20 +1119,873 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="871482952"/>
+        <c:axId val="677300948"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="871482952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677300948"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="677300948"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871482952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>51435</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>543560</xdr:colOff>
+      <xdr:colOff>530860</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,14 +1995,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51435" y="171450"/>
+          <a:off x="108585" y="184150"/>
           <a:ext cx="1101725" cy="339725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1163,6 +2010,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83185</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="635" y="6965950"/>
+        <a:ext cx="4641850" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1428,12 +2305,13 @@
   <sheetPr/>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="9.72727272727273" customWidth="1"/>
     <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
   </cols>
@@ -1503,695 +2381,695 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="15" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="15" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="e">
+      <c r="C13" s="15" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <f>D13*16.667</f>
         <v>0</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f>F13*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="e">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="16" t="e">
+      <c r="C14" s="15" t="e">
         <f t="shared" ref="C14:C30" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
         <v>0</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" ref="G14:G36" si="2">F14*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="e">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="e">
         <f t="shared" ref="B15:B30" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="16" t="e">
+      <c r="C15" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="e">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="16" t="e">
+      <c r="C16" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="e">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="16" t="e">
+      <c r="C17" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="e">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="16" t="e">
+      <c r="C18" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="e">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="16" t="e">
+      <c r="C19" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="e">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="16" t="e">
+      <c r="C20" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16" t="e">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="16" t="e">
+      <c r="C21" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="e">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="16" t="e">
+      <c r="C22" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="e">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="16" t="e">
+      <c r="C23" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="e">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="16" t="e">
+      <c r="C24" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="e">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="16" t="e">
+      <c r="C25" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16" t="e">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="16" t="e">
+      <c r="C26" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="e">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="16" t="e">
+      <c r="C27" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="e">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="16" t="e">
+      <c r="C28" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="e">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="16" t="e">
+      <c r="C29" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16" t="e">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="16" t="e">
+      <c r="C30" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16" t="e">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="e">
         <f t="shared" ref="B31:B36" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="16" t="e">
+      <c r="C31" s="15" t="e">
         <f t="shared" ref="C31:C36" si="5">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="e">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="16" t="e">
+      <c r="C32" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16" t="e">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="16" t="e">
+      <c r="C33" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="e">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="16" t="e">
+      <c r="C34" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16" t="e">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="16" t="e">
+      <c r="C35" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="e">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="16" t="e">
+      <c r="C36" s="15" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17">
         <f>AVERAGE(D13:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <f>AVERAGE(E13:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <f>SUM(F13:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <f>SUM(G13:G36)</f>
         <v>0</v>
       </c>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView windowWidth="20850" windowHeight="10430" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RawData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -90,12 +90,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="[$-421]dddd;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -794,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,11 +829,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -838,10 +856,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,6 +1149,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Flowrate (M3/H)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1143,25 +1182,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1186,11 +1206,91 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$B$13:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="hh:mm;@">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="hh:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$36</c:f>
+              <c:f>Report!$D$13:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1288,6 +1388,41 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Waktu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1351,7 +1486,42 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Flowrate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1983,7 +2153,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>530860</xdr:colOff>
+      <xdr:colOff>264160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
@@ -2015,15 +2185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>83185</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669290</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2031,8 +2201,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="6965950"/>
-        <a:ext cx="4641850" cy="2743200"/>
+        <a:off x="20320" y="6997700"/>
+        <a:ext cx="5379720" cy="2667635"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2305,15 +2475,16 @@
   <sheetPr/>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.72727272727273" customWidth="1"/>
+    <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
+    <col min="4" max="7" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -2357,719 +2528,722 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="13" t="str">
+        <f>A13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15" t="str">
-        <f>RawData!F3</f>
-        <v/>
-      </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="17" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="e">
+      <c r="C13" s="17" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <f>D13*16.667</f>
         <v>0</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="18">
         <f>F13*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="e">
+      <c r="A14" s="19" t="str">
+        <f>A13</f>
+        <v/>
+      </c>
+      <c r="B14" s="17" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="15" t="e">
+      <c r="C14" s="17" t="e">
         <f t="shared" ref="C14:C30" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="18">
         <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <f t="shared" ref="G14:G36" si="2">F14*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="e">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17" t="e">
         <f t="shared" ref="B15:B30" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="15" t="e">
+      <c r="C15" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="e">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="15" t="e">
+      <c r="C16" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="e">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="15" t="e">
+      <c r="C17" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="e">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="15" t="e">
+      <c r="C18" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="e">
+      <c r="A19" s="20"/>
+      <c r="B19" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="15" t="e">
+      <c r="C19" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="e">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="15" t="e">
+      <c r="C20" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="e">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="15" t="e">
+      <c r="C21" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="e">
+      <c r="A22" s="20"/>
+      <c r="B22" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="15" t="e">
+      <c r="C22" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="e">
+      <c r="A23" s="20"/>
+      <c r="B23" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="15" t="e">
+      <c r="C23" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="e">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="15" t="e">
+      <c r="C24" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="e">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="15" t="e">
+      <c r="C25" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="e">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="15" t="e">
+      <c r="C26" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="e">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="15" t="e">
+      <c r="C27" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="e">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="15" t="e">
+      <c r="C28" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="e">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="15" t="e">
+      <c r="C29" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="e">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="15" t="e">
+      <c r="C30" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="e">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17" t="e">
         <f t="shared" ref="B31:B36" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="15" t="e">
+      <c r="C31" s="17" t="e">
         <f t="shared" ref="C31:C36" si="5">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="e">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="15" t="e">
+      <c r="C32" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="e">
+      <c r="A33" s="20"/>
+      <c r="B33" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="15" t="e">
+      <c r="C33" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="e">
+      <c r="A34" s="20"/>
+      <c r="B34" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="15" t="e">
+      <c r="C34" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="e">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="15" t="e">
+      <c r="C35" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="e">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="15" t="e">
+      <c r="C36" s="17" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="18">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22">
         <f>AVERAGE(D13:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="22">
         <f>AVERAGE(E13:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="22">
         <f>SUM(F13:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="22">
         <f>SUM(G13:G36)</f>
         <v>0</v>
       </c>
@@ -3083,6 +3257,11 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13">
+      <formula1>RawData!$F$3:$F$60</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3094,7 +3273,7 @@
   <sheetPr/>
   <dimension ref="B2:F6047"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/Report/flow.xlsx
+++ b/Report/flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="10430" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
     <t>LAPORAN PENGGUNAAN AIR</t>
   </si>
   <si>
-    <t>ALAT UKUR</t>
+    <t>ALAT UKUR       :</t>
   </si>
   <si>
     <t>FLOW METER ELECTROMAGNETIC</t>
   </si>
   <si>
-    <t>SUMBER</t>
+    <t>SUMBER            :</t>
   </si>
   <si>
     <t>SUMUR TANAH 02</t>
   </si>
   <si>
-    <t>DATE UPDATE</t>
+    <t>DATE UPDATE  :</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,8 +829,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,8 +847,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,8 +856,8 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2202,7 +2211,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="20320" y="6997700"/>
-        <a:ext cx="5379720" cy="2667635"/>
+        <a:ext cx="5462270" cy="2667635"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2475,15 +2484,14 @@
   <sheetPr/>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="10.9090909090909" customWidth="1"/>
     <col min="4" max="7" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2508,749 +2516,759 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="6" spans="2:3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="16" t="str">
         <f>A13</f>
         <v/>
       </c>
+      <c r="C9" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="19" t="str">
         <f>RawData!F3</f>
         <v/>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="20" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="C13" s="17" t="e">
+      <c r="C13" s="20" t="e">
         <f>B13+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13),0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <f>D13*16.667</f>
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B13,RawData!$B$3:$B$6000,"&lt;"&amp;C13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="21">
         <f>F13*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19" t="str">
+      <c r="A14" s="22" t="str">
         <f>A13</f>
         <v/>
       </c>
-      <c r="B14" s="17" t="e">
+      <c r="B14" s="20" t="e">
         <f>C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="17" t="e">
+      <c r="C14" s="20" t="e">
         <f t="shared" ref="C14:C30" si="0">B14+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14),0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <f t="shared" ref="E14:E36" si="1">D14*16.667</f>
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B14,RawData!$B$3:$B$6000,"&lt;"&amp;C14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G36" si="2">F14*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17" t="e">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20" t="e">
         <f t="shared" ref="B15:B30" si="3">C14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="17" t="e">
+      <c r="C15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15),0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B15,RawData!$B$3:$B$6000,"&lt;"&amp;C15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17" t="e">
+      <c r="A16" s="23"/>
+      <c r="B16" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="17" t="e">
+      <c r="C16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16),0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B16,RawData!$B$3:$B$6000,"&lt;"&amp;C16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17" t="e">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="17" t="e">
+      <c r="C17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B17,RawData!$B$3:$B$6000,"&lt;"&amp;C17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17" t="e">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="17" t="e">
+      <c r="C18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18),0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B18,RawData!$B$3:$B$6000,"&lt;"&amp;C18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17" t="e">
+      <c r="A19" s="23"/>
+      <c r="B19" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="17" t="e">
+      <c r="C19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19),0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B19,RawData!$B$3:$B$6000,"&lt;"&amp;C19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17" t="e">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="17" t="e">
+      <c r="C20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20),0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B20,RawData!$B$3:$B$6000,"&lt;"&amp;C20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17" t="e">
+      <c r="A21" s="23"/>
+      <c r="B21" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="17" t="e">
+      <c r="C21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B21,RawData!$B$3:$B$6000,"&lt;"&amp;C21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17" t="e">
+      <c r="A22" s="23"/>
+      <c r="B22" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="17" t="e">
+      <c r="C22" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B22,RawData!$B$3:$B$6000,"&lt;"&amp;C22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17" t="e">
+      <c r="A23" s="23"/>
+      <c r="B23" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="17" t="e">
+      <c r="C23" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B23,RawData!$B$3:$B$6000,"&lt;"&amp;C23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17" t="e">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="17" t="e">
+      <c r="C24" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B24,RawData!$B$3:$B$6000,"&lt;"&amp;C24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17" t="e">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="17" t="e">
+      <c r="C25" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B25,RawData!$B$3:$B$6000,"&lt;"&amp;C25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17" t="e">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="17" t="e">
+      <c r="C26" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B26,RawData!$B$3:$B$6000,"&lt;"&amp;C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17" t="e">
+      <c r="A27" s="23"/>
+      <c r="B27" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="17" t="e">
+      <c r="C27" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B27,RawData!$B$3:$B$6000,"&lt;"&amp;C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17" t="e">
+      <c r="A28" s="23"/>
+      <c r="B28" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="17" t="e">
+      <c r="C28" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B28,RawData!$B$3:$B$6000,"&lt;"&amp;C28)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17" t="e">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="17" t="e">
+      <c r="C29" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B29,RawData!$B$3:$B$6000,"&lt;"&amp;C29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17" t="e">
+      <c r="A30" s="23"/>
+      <c r="B30" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="17" t="e">
+      <c r="C30" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B30,RawData!$B$3:$B$6000,"&lt;"&amp;C30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17" t="e">
+      <c r="A31" s="23"/>
+      <c r="B31" s="20" t="e">
         <f t="shared" ref="B31:B36" si="4">C30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="17" t="e">
+      <c r="C31" s="20" t="e">
         <f t="shared" ref="C31:C36" si="5">B31+(1/24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B31,RawData!$B$3:$B$6000,"&lt;"&amp;C31)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17" t="e">
+      <c r="A32" s="23"/>
+      <c r="B32" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="17" t="e">
+      <c r="C32" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B32,RawData!$B$3:$B$6000,"&lt;"&amp;C32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17" t="e">
+      <c r="A33" s="23"/>
+      <c r="B33" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="17" t="e">
+      <c r="C33" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B33,RawData!$B$3:$B$6000,"&lt;"&amp;C33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17" t="e">
+      <c r="A34" s="23"/>
+      <c r="B34" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="17" t="e">
+      <c r="C34" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B34,RawData!$B$3:$B$6000,"&lt;"&amp;C34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17" t="e">
+      <c r="A35" s="23"/>
+      <c r="B35" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="17" t="e">
+      <c r="C35" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B35,RawData!$B$3:$B$6000,"&lt;"&amp;C35)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17" t="e">
+      <c r="A36" s="23"/>
+      <c r="B36" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="17" t="e">
+      <c r="C36" s="20" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="21">
         <f>IF(COUNTIFS(RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)&gt;0,AVERAGEIFS(RawData!$C$3:$C$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="21">
         <f>_xlfn.MAXIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)-_xlfn.MINIFS(RawData!$D$3:$D$6000,RawData!$B$3:$B$6000,"&gt;="&amp;B36,RawData!$B$3:$B$6000,"&lt;"&amp;C36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25">
         <f>AVERAGE(D13:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="25">
         <f>AVERAGE(E13:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="25">
         <f>SUM(F13:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="25">
         <f>SUM(G13:G36)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -3273,7 +3291,7 @@
   <sheetPr/>
   <dimension ref="B2:F6047"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
